--- a/inputs/設定値.xlsx
+++ b/inputs/設定値.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mos-burger/マイドライブ/AZIK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/love_cremia/Documents/GitHub/My_AZIK/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB819A9-5594-1A4E-BB1B-163820F4854D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C16D57-B802-0445-B3A4-B65EAB725C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="2587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4987" uniqueCount="2590">
   <si>
     <t>かん</t>
   </si>
@@ -8883,6 +8883,30 @@
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊拡張 独自 (英語キーボードでよくミスるため)</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">エイゴ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9099,7 +9123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9134,6 +9158,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11066,8 +11091,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2A441DC-3FA2-49BC-95EF-9282B714C488}" name="Tbl_Main" displayName="Tbl_Main" ref="E2:I406" totalsRowShown="0">
-  <autoFilter ref="E2:I406" xr:uid="{B2A441DC-3FA2-49BC-95EF-9282B714C488}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2A441DC-3FA2-49BC-95EF-9282B714C488}" name="Tbl_Main" displayName="Tbl_Main" ref="E2:I407" totalsRowShown="0">
+  <autoFilter ref="E2:I407" xr:uid="{B2A441DC-3FA2-49BC-95EF-9282B714C488}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A622E1B-71D2-44B9-8BCF-C3BDDC672287}" name="入力"/>
     <tableColumn id="2" xr3:uid="{8371D8B9-CCBF-42C6-A01D-E8999E175538}" name="出力"/>
@@ -37941,8 +37966,8 @@
   <dimension ref="A1:O429"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E408" sqref="E408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -57662,6 +57687,23 @@
       </c>
     </row>
     <row r="407" spans="5:15">
+      <c r="E407" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F407" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G407" t="s">
+        <v>2589</v>
+      </c>
+      <c r="H407" s="20" cm="1">
+        <f t="array" ref="H407">SUMPRODUCT( EXACT( Tbl_Main[出力], Tbl_Main[[#This Row],[出力]]) * 1 )</f>
+        <v>1</v>
+      </c>
+      <c r="I407" s="20" t="str">
+        <f>IF( COUNTIF(Tbl_Main[入力], Tbl_Main[[#This Row],[入力]]) &gt; 1, "ERROR!", "OK")</f>
+        <v>OK</v>
+      </c>
       <c r="K407" t="s">
         <v>2536</v>
       </c>
